--- a/test_data/testdata.xlsx
+++ b/test_data/testdata.xlsx
@@ -2681,7 +2681,7 @@
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">

--- a/test_data/testdata.xlsx
+++ b/test_data/testdata.xlsx
@@ -49,8 +49,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -58,21 +57,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -86,75 +70,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -178,7 +94,91 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -200,7 +200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +224,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,25 +260,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,25 +350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,19 +362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,67 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,22 +413,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,42 +463,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +482,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -514,145 +514,145 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="18" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="9" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="16" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="16" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="12" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="18" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="27" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="27" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="9" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,7 +994,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.84166666666667" defaultRowHeight="15"/>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
